--- a/data/Sample.xlsx
+++ b/data/Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunopaes/Documents/OneDrive/Acadêmico/ESPM/Projetos/PIC/Desenvolvimento/04.2 - SortingHat/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31913000-F8E7-6847-BD9D-969055A62046}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1643EC55-B332-684C-9D2E-C3A8E4A1FD1E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Training" sheetId="5" r:id="rId1"/>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461C3502-A791-EB4D-8FA7-5F1098505804}">
   <dimension ref="A1:T159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:T157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10317,8 +10317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19E87B9-CBF0-E842-A54D-0DADD15A4CE2}">
   <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:U40"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/data/Sample.xlsx
+++ b/data/Sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunopaes/Documents/OneDrive/Acadêmico/ESPM/Projetos/PIC/Desenvolvimento/04.2 - SortingHat/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunopaes/Documents/OneDrive/Acadêmico/ESPM/Projetos/PIC/Desenvolvimento/04.2 - SortingHat/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8E1280-1A0B-8C41-8A14-9FFAE409A337}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{9B9D2651-8EBB-3247-811D-185A81516967}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="27320" windowHeight="13700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Train" sheetId="5" r:id="rId1"/>
@@ -216,6 +216,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -228,11 +233,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,7 +550,7 @@
   <dimension ref="A1:V362"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Q362"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -607,9 +607,9 @@
       <c r="Q1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="11"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="14"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
@@ -1230,7 +1230,7 @@
       <c r="T11" s="8">
         <v>1</v>
       </c>
-      <c r="V11" s="13"/>
+      <c r="V11" s="9"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
@@ -22942,7 +22942,7 @@
       </c>
       <c r="C362" s="1">
         <f t="shared" ref="C362:M362" ca="1" si="0">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D362" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -22950,7 +22950,7 @@
       </c>
       <c r="E362" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F362" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -22962,15 +22962,15 @@
       </c>
       <c r="H362" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J362" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K362" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -23029,7 +23029,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="208" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -23083,35 +23083,35 @@
       <c r="R1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15">
+      <c r="A3" s="11">
         <v>71</v>
       </c>
       <c r="B3" s="1">
@@ -23176,7 +23176,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15">
+      <c r="A4" s="11">
         <v>768</v>
       </c>
       <c r="B4" s="1">
@@ -23241,7 +23241,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="15">
+      <c r="A5" s="11">
         <v>853</v>
       </c>
       <c r="B5" s="1">
@@ -23306,7 +23306,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="15">
+      <c r="A6" s="11">
         <v>1293</v>
       </c>
       <c r="B6" s="1">
@@ -23371,7 +23371,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="15">
+      <c r="A7" s="11">
         <v>1630</v>
       </c>
       <c r="B7" s="1">
@@ -23436,7 +23436,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="15">
+      <c r="A8" s="11">
         <v>3193</v>
       </c>
       <c r="B8" s="1">
@@ -23501,7 +23501,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15">
+      <c r="A9" s="11">
         <v>4138</v>
       </c>
       <c r="B9" s="1">
@@ -23566,7 +23566,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15">
+      <c r="A10" s="11">
         <v>5702</v>
       </c>
       <c r="B10" s="1">
@@ -23631,7 +23631,7 @@
       </c>
     </row>
     <row r="11" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15">
+      <c r="A11" s="11">
         <v>5919</v>
       </c>
       <c r="B11" s="1">
@@ -23696,7 +23696,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15">
+      <c r="A12" s="11">
         <v>6161</v>
       </c>
       <c r="B12" s="1">
@@ -23761,7 +23761,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="15">
+      <c r="A13" s="11">
         <v>7557</v>
       </c>
       <c r="B13" s="1">
@@ -23826,7 +23826,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15">
+      <c r="A14" s="11">
         <v>7829</v>
       </c>
       <c r="B14" s="1">
@@ -23891,7 +23891,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15">
+      <c r="A15" s="11">
         <v>7901</v>
       </c>
       <c r="B15" s="1">
@@ -23956,7 +23956,7 @@
       </c>
     </row>
     <row r="16" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="15">
+      <c r="A16" s="11">
         <v>8770</v>
       </c>
       <c r="B16" s="1">
@@ -24021,7 +24021,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="15">
+      <c r="A17" s="11">
         <v>9674</v>
       </c>
       <c r="B17" s="1">
@@ -24086,7 +24086,7 @@
       </c>
     </row>
     <row r="18" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="15">
+      <c r="A18" s="11">
         <v>11094</v>
       </c>
       <c r="B18" s="1">
@@ -24151,7 +24151,7 @@
       </c>
     </row>
     <row r="19" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="15">
+      <c r="A19" s="11">
         <v>11158</v>
       </c>
       <c r="B19" s="1">
@@ -24216,7 +24216,7 @@
       </c>
     </row>
     <row r="20" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="15">
+      <c r="A20" s="11">
         <v>12681</v>
       </c>
       <c r="B20" s="1">
@@ -24281,7 +24281,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="15">
+      <c r="A21" s="11">
         <v>13429</v>
       </c>
       <c r="B21" s="1">
@@ -24346,7 +24346,7 @@
       </c>
     </row>
     <row r="22" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="15">
+      <c r="A22" s="11">
         <v>14166</v>
       </c>
       <c r="B22" s="1">
@@ -24411,7 +24411,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="15">
+      <c r="A23" s="11">
         <v>16350</v>
       </c>
       <c r="B23" s="1">
@@ -24476,7 +24476,7 @@
       </c>
     </row>
     <row r="24" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="15">
+      <c r="A24" s="11">
         <v>16999</v>
       </c>
       <c r="B24" s="1">
@@ -24541,7 +24541,7 @@
       </c>
     </row>
     <row r="25" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="15">
+      <c r="A25" s="11">
         <v>17593</v>
       </c>
       <c r="B25" s="1">
@@ -24606,7 +24606,7 @@
       </c>
     </row>
     <row r="26" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="15">
+      <c r="A26" s="11">
         <v>19380</v>
       </c>
       <c r="B26" s="1">
@@ -24671,7 +24671,7 @@
       </c>
     </row>
     <row r="27" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="15">
+      <c r="A27" s="11">
         <v>19846</v>
       </c>
       <c r="B27" s="1">
@@ -24736,7 +24736,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="15">
+      <c r="A28" s="11">
         <v>20937</v>
       </c>
       <c r="B28" s="1">
@@ -24801,7 +24801,7 @@
       </c>
     </row>
     <row r="29" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="15">
+      <c r="A29" s="11">
         <v>25554</v>
       </c>
       <c r="B29" s="1">
@@ -24866,7 +24866,7 @@
       </c>
     </row>
     <row r="30" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="15">
+      <c r="A30" s="11">
         <v>25598</v>
       </c>
       <c r="B30" s="1">
@@ -24931,7 +24931,7 @@
       </c>
     </row>
     <row r="31" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="15">
+      <c r="A31" s="11">
         <v>31530</v>
       </c>
       <c r="B31" s="1">
@@ -24996,7 +24996,7 @@
       </c>
     </row>
     <row r="32" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="15">
+      <c r="A32" s="11">
         <v>32395</v>
       </c>
       <c r="B32" s="1">
@@ -25061,7 +25061,7 @@
       </c>
     </row>
     <row r="33" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="15">
+      <c r="A33" s="11">
         <v>34219</v>
       </c>
       <c r="B33" s="1">
@@ -25126,7 +25126,7 @@
       </c>
     </row>
     <row r="34" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="15">
+      <c r="A34" s="11">
         <v>34489</v>
       </c>
       <c r="B34" s="1">
@@ -25191,7 +25191,7 @@
       </c>
     </row>
     <row r="35" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="15">
+      <c r="A35" s="11">
         <v>37073</v>
       </c>
       <c r="B35" s="1">
@@ -25256,7 +25256,7 @@
       </c>
     </row>
     <row r="36" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="15">
+      <c r="A36" s="11">
         <v>38306</v>
       </c>
       <c r="B36" s="1">
@@ -25321,7 +25321,7 @@
       </c>
     </row>
     <row r="37" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="15">
+      <c r="A37" s="11">
         <v>38323</v>
       </c>
       <c r="B37" s="1">
@@ -25386,7 +25386,7 @@
       </c>
     </row>
     <row r="38" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="15">
+      <c r="A38" s="11">
         <v>40437</v>
       </c>
       <c r="B38" s="1">
@@ -25451,7 +25451,7 @@
       </c>
     </row>
     <row r="39" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="15">
+      <c r="A39" s="11">
         <v>40921</v>
       </c>
       <c r="B39" s="1">
@@ -25516,7 +25516,7 @@
       </c>
     </row>
     <row r="40" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="15">
+      <c r="A40" s="11">
         <v>40981</v>
       </c>
       <c r="B40" s="1">
@@ -25581,7 +25581,7 @@
       </c>
     </row>
     <row r="41" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="15">
+      <c r="A41" s="11">
         <v>43689</v>
       </c>
       <c r="B41" s="1">
@@ -25646,7 +25646,7 @@
       </c>
     </row>
     <row r="42" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="15">
+      <c r="A42" s="11">
         <v>45781</v>
       </c>
       <c r="B42" s="1">
@@ -25711,7 +25711,7 @@
       </c>
     </row>
     <row r="43" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="15">
+      <c r="A43" s="11">
         <v>49825</v>
       </c>
       <c r="B43" s="1">
@@ -25776,7 +25776,7 @@
       </c>
     </row>
     <row r="44" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="15">
+      <c r="A44" s="11">
         <v>52432</v>
       </c>
       <c r="B44" s="1">
@@ -25841,7 +25841,7 @@
       </c>
     </row>
     <row r="45" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="15">
+      <c r="A45" s="11">
         <v>52886</v>
       </c>
       <c r="B45" s="1">
@@ -25906,7 +25906,7 @@
       </c>
     </row>
     <row r="46" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="15">
+      <c r="A46" s="11">
         <v>53238</v>
       </c>
       <c r="B46" s="1">
@@ -25971,7 +25971,7 @@
       </c>
     </row>
     <row r="47" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="15">
+      <c r="A47" s="11">
         <v>54175</v>
       </c>
       <c r="B47" s="1">
@@ -26036,7 +26036,7 @@
       </c>
     </row>
     <row r="48" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="15">
+      <c r="A48" s="11">
         <v>55287</v>
       </c>
       <c r="B48" s="1">
@@ -26101,7 +26101,7 @@
       </c>
     </row>
     <row r="49" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="15">
+      <c r="A49" s="11">
         <v>55880</v>
       </c>
       <c r="B49" s="1">
@@ -26166,7 +26166,7 @@
       </c>
     </row>
     <row r="50" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="15">
+      <c r="A50" s="11">
         <v>56057</v>
       </c>
       <c r="B50" s="1">
@@ -26231,7 +26231,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="15">
+      <c r="A51" s="11">
         <v>56343</v>
       </c>
       <c r="B51" s="1">
@@ -26296,7 +26296,7 @@
       </c>
     </row>
     <row r="52" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="15">
+      <c r="A52" s="11">
         <v>56711</v>
       </c>
       <c r="B52" s="1">
@@ -26361,7 +26361,7 @@
       </c>
     </row>
     <row r="53" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="15">
+      <c r="A53" s="11">
         <v>56967</v>
       </c>
       <c r="B53" s="1">
@@ -26426,7 +26426,7 @@
       </c>
     </row>
     <row r="54" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="15">
+      <c r="A54" s="11">
         <v>60927</v>
       </c>
       <c r="B54" s="1">
@@ -26491,7 +26491,7 @@
       </c>
     </row>
     <row r="55" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="15">
+      <c r="A55" s="11">
         <v>61322</v>
       </c>
       <c r="B55" s="1">
@@ -26556,7 +26556,7 @@
       </c>
     </row>
     <row r="56" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="15">
+      <c r="A56" s="11">
         <v>63384</v>
       </c>
       <c r="B56" s="1">
@@ -26621,7 +26621,7 @@
       </c>
     </row>
     <row r="57" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="15">
+      <c r="A57" s="11">
         <v>63842</v>
       </c>
       <c r="B57" s="1">
@@ -26686,7 +26686,7 @@
       </c>
     </row>
     <row r="58" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="15">
+      <c r="A58" s="11">
         <v>64679</v>
       </c>
       <c r="B58" s="1">
@@ -26751,7 +26751,7 @@
       </c>
     </row>
     <row r="59" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="15">
+      <c r="A59" s="11">
         <v>65611</v>
       </c>
       <c r="B59" s="1">
@@ -26816,7 +26816,7 @@
       </c>
     </row>
     <row r="60" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="15">
+      <c r="A60" s="11">
         <v>66409</v>
       </c>
       <c r="B60" s="1">
@@ -26881,7 +26881,7 @@
       </c>
     </row>
     <row r="61" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="15">
+      <c r="A61" s="11">
         <v>66794</v>
       </c>
       <c r="B61" s="1">
@@ -26946,7 +26946,7 @@
       </c>
     </row>
     <row r="62" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="15">
+      <c r="A62" s="11">
         <v>70100</v>
       </c>
       <c r="B62" s="1">
@@ -27011,7 +27011,7 @@
       </c>
     </row>
     <row r="63" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="15">
+      <c r="A63" s="11">
         <v>71615</v>
       </c>
       <c r="B63" s="1">
@@ -27076,7 +27076,7 @@
       </c>
     </row>
     <row r="64" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="15">
+      <c r="A64" s="11">
         <v>72465</v>
       </c>
       <c r="B64" s="1">
@@ -27141,7 +27141,7 @@
       </c>
     </row>
     <row r="65" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="15">
+      <c r="A65" s="11">
         <v>73137</v>
       </c>
       <c r="B65" s="1">
@@ -27206,7 +27206,7 @@
       </c>
     </row>
     <row r="66" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="15">
+      <c r="A66" s="11">
         <v>73951</v>
       </c>
       <c r="B66" s="1">
@@ -27271,7 +27271,7 @@
       </c>
     </row>
     <row r="67" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="15">
+      <c r="A67" s="11">
         <v>75320</v>
       </c>
       <c r="B67" s="1">
@@ -27336,7 +27336,7 @@
       </c>
     </row>
     <row r="68" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="15">
+      <c r="A68" s="11">
         <v>75714</v>
       </c>
       <c r="B68" s="1">
@@ -27401,7 +27401,7 @@
       </c>
     </row>
     <row r="69" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="15">
+      <c r="A69" s="11">
         <v>77617</v>
       </c>
       <c r="B69" s="1">
@@ -27466,7 +27466,7 @@
       </c>
     </row>
     <row r="70" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="15">
+      <c r="A70" s="11">
         <v>78444</v>
       </c>
       <c r="B70" s="1">
@@ -27531,7 +27531,7 @@
       </c>
     </row>
     <row r="71" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="15">
+      <c r="A71" s="11">
         <v>79058</v>
       </c>
       <c r="B71" s="1">
@@ -27596,7 +27596,7 @@
       </c>
     </row>
     <row r="72" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="15">
+      <c r="A72" s="11">
         <v>79718</v>
       </c>
       <c r="B72" s="1">
@@ -27661,7 +27661,7 @@
       </c>
     </row>
     <row r="73" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="15">
+      <c r="A73" s="11">
         <v>80944</v>
       </c>
       <c r="B73" s="1">
@@ -27726,7 +27726,7 @@
       </c>
     </row>
     <row r="74" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="15">
+      <c r="A74" s="11">
         <v>82352</v>
       </c>
       <c r="B74" s="1">
@@ -27791,7 +27791,7 @@
       </c>
     </row>
     <row r="75" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="15">
+      <c r="A75" s="11">
         <v>84197</v>
       </c>
       <c r="B75" s="1">
@@ -27856,7 +27856,7 @@
       </c>
     </row>
     <row r="76" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="15">
+      <c r="A76" s="11">
         <v>84718</v>
       </c>
       <c r="B76" s="1">
@@ -27921,7 +27921,7 @@
       </c>
     </row>
     <row r="77" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="15">
+      <c r="A77" s="11">
         <v>86130</v>
       </c>
       <c r="B77" s="1">
@@ -27986,7 +27986,7 @@
       </c>
     </row>
     <row r="78" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="15">
+      <c r="A78" s="11">
         <v>87433</v>
       </c>
       <c r="B78" s="1">
@@ -28051,7 +28051,7 @@
       </c>
     </row>
     <row r="79" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="15">
+      <c r="A79" s="11">
         <v>87541</v>
       </c>
       <c r="B79" s="1">
@@ -28116,7 +28116,7 @@
       </c>
     </row>
     <row r="80" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="15">
+      <c r="A80" s="11">
         <v>87768</v>
       </c>
       <c r="B80" s="1">
@@ -28181,7 +28181,7 @@
       </c>
     </row>
     <row r="81" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="15">
+      <c r="A81" s="11">
         <v>92420</v>
       </c>
       <c r="B81" s="1">
@@ -28246,7 +28246,7 @@
       </c>
     </row>
     <row r="82" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="15">
+      <c r="A82" s="11">
         <v>92821</v>
       </c>
       <c r="B82" s="1">
@@ -28311,7 +28311,7 @@
       </c>
     </row>
     <row r="83" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="15">
+      <c r="A83" s="11">
         <v>92984</v>
       </c>
       <c r="B83" s="1">
@@ -28376,7 +28376,7 @@
       </c>
     </row>
     <row r="84" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="15">
+      <c r="A84" s="11">
         <v>93281</v>
       </c>
       <c r="B84" s="1">
@@ -28441,7 +28441,7 @@
       </c>
     </row>
     <row r="85" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="15">
+      <c r="A85" s="11">
         <v>93657</v>
       </c>
       <c r="B85" s="1">
@@ -28506,7 +28506,7 @@
       </c>
     </row>
     <row r="86" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="15">
+      <c r="A86" s="11">
         <v>93686</v>
       </c>
       <c r="B86" s="1">
@@ -28571,7 +28571,7 @@
       </c>
     </row>
     <row r="87" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="15">
+      <c r="A87" s="11">
         <v>93693</v>
       </c>
       <c r="B87" s="1">
@@ -28636,7 +28636,7 @@
       </c>
     </row>
     <row r="88" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="15">
+      <c r="A88" s="11">
         <v>95644</v>
       </c>
       <c r="B88" s="1">
@@ -28701,7 +28701,7 @@
       </c>
     </row>
     <row r="89" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="15">
+      <c r="A89" s="11">
         <v>97824</v>
       </c>
       <c r="B89" s="1">
@@ -28766,7 +28766,7 @@
       </c>
     </row>
     <row r="90" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="15">
+      <c r="A90" s="11">
         <v>98407</v>
       </c>
       <c r="B90" s="1">
@@ -28831,7 +28831,7 @@
       </c>
     </row>
     <row r="91" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="15">
+      <c r="A91" s="11">
         <v>99105</v>
       </c>
       <c r="B91" s="1">
@@ -28896,7 +28896,7 @@
       </c>
     </row>
     <row r="92" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="15">
+      <c r="A92" s="11">
         <v>99110</v>
       </c>
       <c r="B92" s="1">
